--- a/whatsapp_job_updates_2025-10-26.xlsx
+++ b/whatsapp_job_updates_2025-10-26.xlsx
@@ -1,188 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Whatsapp_Filter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE836846-2BF2-407F-B774-B7EF4411B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>Sender</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>2:20 pm, 25/10/2025</t>
-  </si>
-  <si>
-    <t>Dear Job Aspirants,
-We are looking for a Male - Security Guard / Supervisor to work for reputed manufacturing organization @ J.C. Industrial Area, Yelachenahalli, Kanakapura road, Bangalore - 560 062.
-One to two years experience in a similar field. 
-Qualification - PUC / Degree
-Salary will be best in Industry + Free Lunch + other benefits will be there.
-Interested candidates, pls contact +91 - 99000 75523</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We’re Hiring: Accounts Executive | Real Estate Sector
-Are you an accounting professional with real estate experience and hands-on knowledge of Tally, GST, and TDS
- Key Skills Required:
-Strong knowledge of Accounting Principles and Tally ERP (or similar)
- • Working knowledge of GST, TDS, E-way Bills, and banking transactions
- • Familiarity with real estate terms like Work Orders, Project Costs, Advance Receipts
- • Excellent in MS Excel and office productivity tools
- • Strong organizational &amp; documentation skills
- Industry: Real Estate
- Location: Lavelle Road (Bangalore)
-  Apply/DM: swetha@inspirabuilders.com / 8197421202</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We're Hiring: Front Office Executive 
- Location: Lavelle Road, Bangalore 
-Have a hotel industry background and 5+ years of front office experience? Join our team and be the face of our organization!
-5+ years in a front office or guest relations role
-Strong hospitality background (hotels preferred)
-Excellent communication &amp; presentation skills
-Proficient in MS Office &amp; admin tools
-Well-groomed, organized, and customer-first attitude
- Ready to be the first impression of a growing company?
-  Apply now: Mail your CV to swetha@inspirabuilders.com or wats up your resume to 8197421202</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We’re Hiring – Bangalore!
-Kerala Ayurveda (Katra Group) – Bangalore
-Hiring full-time for Finance &amp; Compliance Roles 
- Company Secretary (CS) – ICSI, 2–3 yrs exp
- Chartered Accountant (CA) – 3–5 yrs exp
- Internal Auditor (Finance) – CA mandatory, 2–4 yrs exp
- Salary: Based on current package and experience
- Send CV with subject line: [Job Title] – [Your Name]
- Email: diwakar.n@katraphyto.com</t>
-  </si>
-  <si>
-    <t>We are Hiring
-Operations Manager
-Manage retail store &amp; distribution operations
-Oversee installations, inventory, billing
-Coordinate with customers, teams, suppliers
-Ensure timely order fulfillment
-Requirements:
-Graduate, 2-5 years experience
-Strong organizational &amp; communication skills
-MS Office, Tally ERP
-Location: Alake, Mangalore
-Warehouse/Godown Executive (2 Vacancies)
-Material picking, packing, dispatch
-Valid Driving Licence
-Requirements:
-Graduate/12th, basic English
-Hardworking
-Location: Mannagudda, Mangalore
-Send resumes to +91 9591810180</t>
-  </si>
-  <si>
-    <t>We, at REON Skills India Private Limited are looking for passionate and energetic HR professional who is eager to build a rewarding career in Talent Acquisition / Recruitment. This role offers the opportunity to lead a team of recruiters handling end-to-end hiring processes, work closely with clients, mobilizers, and institutions and make a real impact by helping organizations find the right talent.
-Role: Team lead - Placements
-  Location: Basaveshwara Nagar, Bangalore
-  Experience: 2–5 years in recruitment &amp; Talent Acquisition
-  Education: Any Bachelor’s Degree
- Salary: Not a constraint for right candidate. Depends on the experience, expertise and present salary.
-What You’ll Do:
-  Understand client hiring needs and job requirements
-  Source and …</t>
-  </si>
-  <si>
-    <t>6:21 pm, 26/10/2025</t>
-  </si>
-  <si>
-    <t>Job Title: Social Media Executive  
-Location: [Bangalore, India”]  
-Salary: Starting from ₹25,000  per month  
-Experience: 2 years  
-Industry: Media / News &amp; Broadcasting  
-Channel Name- REBEL TV KANNADA
-About the Company:  
-Join a dynamic and fast-growing news channel committed to delivering credible, engaging, and timely content across digital and broadcast platforms.  
-Key Responsibilities:  
-•⁠  ⁠Manage daily social media operations across platforms (Instagram, Facebook, X, LinkedIn, YouTube).  
-•⁠  ⁠Curate, create, and publish engaging content aligned with trending news.  
-•⁠  ⁠Collaborate with the editorial and video production teams to promote stories and special features.  
-•⁠  ⁠Monitor analytics, track audience engagement, and suggest improvement…</t>
-  </si>
-  <si>
-    <t>7:03 pm, 26/10/2025</t>
-  </si>
-  <si>
-    <t>Company name is Switchgear and control technic Private limited 
-Open position are
-Welding operator
-HSE executive 
-Account executive (fresher)
-Sales manager (wire harness/electrical background)
-Tendering executive(freshers)(vizag location)
-Contact person name: Harini no: 9886051438
-Email id : harini.a@switchgear.in 
-Location: BommaSandra</t>
-  </si>
-  <si>
-    <t>10:11 pm, 26/10/2025</t>
-  </si>
-  <si>
-    <t>JOB ALERT: FOR PEOPLE WHO TALK MORE THAN THEY LISTEN
-Role: US Customer Support Associate (Voice – E-commerce)
-Location: Electronic City Phase 2, Bengaluru
-Shift: US Rotational – yes, you’ll see sunrise only on Instagram
-SALARY SLABS (Pick your pain):
-0–6 Months: ₹3.10 LPA — Welcome gift: Dark circles
-7–12 Months: ₹3.75 LPA — You now say “sure thing” instead of “okay”
-13–23 Months: ₹4.10–4.22 LPA — You’ve evolved into a professional call warrior
-REQUIREMENTS:
-English so fluent even Siri gets confused
-Freshers welcome (experience arguing with Zomato support also counts)
-Education: PUC &amp; above — we believe in vibes more than marksheets
-CABS:
-2-Way cab included
-But ₹1,000/month deduction — think of it as rent for not walking
-WORK DETAILS:
-5 Days Working | 2…</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -197,47 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -525,96 +420,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="101.7265625" style="3" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="203" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sender</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2:20 pm, 25/10/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dear Job Aspirants,
+We are looking for a Male - Security Guard / Supervisor to work for reputed manufacturing organization @ J.C. Industrial Area, Yelachenahalli, Kanakapura road, Bangalore - 560 062.
+One to two years experience in a similar field. 
+Qualification - PUC / Degree
+Salary will be best in Industry + Free Lunch + other benefits will be there.
+Interested candidates, pls contact +91 - 99000 75523</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2:20 pm, 25/10/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We’re Hiring: Accounts Executive | Real Estate Sector
+Are you an accounting professional with real estate experience and hands-on knowledge of Tally, GST, and TDS
+ Key Skills Required:
+Strong knowledge of Accounting Principles and Tally ERP (or similar)
+ • Working knowledge of GST, TDS, E-way Bills, and banking transactions
+ • Familiarity with real estate terms like Work Orders, Project Costs, Advance Receipts
+ • Excellent in MS Excel and office productivity tools
+ • Strong organizational &amp; documentation skills
+ Industry: Real Estate
+ Location: Lavelle Road (Bangalore)
+  Apply/DM: swetha@inspirabuilders.com / 8197421202</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2:20 pm, 25/10/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We're Hiring: Front Office Executive 
+ Location: Lavelle Road, Bangalore 
+Have a hotel industry background and 5+ years of front office experience? Join our team and be the face of our organization!
+5+ years in a front office or guest relations role
+Strong hospitality background (hotels preferred)
+Excellent communication &amp; presentation skills
+Proficient in MS Office &amp; admin tools
+Well-groomed, organized, and customer-first attitude
+ Ready to be the first impression of a growing company?
+  Apply now: Mail your CV to swetha@inspirabuilders.com or wats up your resume to 8197421202</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2:20 pm, 25/10/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We’re Hiring – Bangalore!
+Kerala Ayurveda (Katra Group) – Bangalore
+Hiring full-time for Finance &amp; Compliance Roles 
+ Company Secretary (CS) – ICSI, 2–3 yrs exp
+ Chartered Accountant (CA) – 3–5 yrs exp
+ Internal Auditor (Finance) – CA mandatory, 2–4 yrs exp
+ Salary: Based on current package and experience
+ Send CV with subject line: [Job Title] – [Your Name]
+ Email: diwakar.n@katraphyto.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2:20 pm, 25/10/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>We are Hiring
+Operations Manager
+Manage retail store &amp; distribution operations
+Oversee installations, inventory, billing
+Coordinate with customers, teams, suppliers
+Ensure timely order fulfillment
+Requirements:
+Graduate, 2-5 years experience
+Strong organizational &amp; communication skills
+MS Office, Tally ERP
+Location: Alake, Mangalore
+Warehouse/Godown Executive (2 Vacancies)
+Material picking, packing, dispatch
+Valid Driving Licence
+Requirements:
+Graduate/12th, basic English
+Hardworking
+Location: Mannagudda, Mangalore
+Send resumes to +91 9591810180</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2:20 pm, 25/10/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>We, at REON Skills India Private Limited are looking for passionate and energetic HR professional who is eager to build a rewarding career in Talent Acquisition / Recruitment. This role offers the opportunity to lead a team of recruiters handling end-to-end hiring processes, work closely with clients, mobilizers, and institutions and make a real impact by helping organizations find the right talent.
+Role: Team lead - Placements
+  Location: Basaveshwara Nagar, Bangalore
+  Experience: 2–5 years in recruitment &amp; Talent Acquisition
+  Education: Any Bachelor’s Degree
+ Salary: Not a constraint for right candidate. Depends on the experience, expertise and present salary.
+What You’ll Do:
+  Understand client hiring needs and job requirements
+  Source and …</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6:21 pm, 26/10/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Job Title: Social Media Executive  
+Location: [Bangalore, India”]  
+Salary: Starting from ₹25,000  per month  
+Experience: 2 years  
+Industry: Media / News &amp; Broadcasting  
+Channel Name- REBEL TV KANNADA
+About the Company:  
+Join a dynamic and fast-growing news channel committed to delivering credible, engaging, and timely content across digital and broadcast platforms.  
+Key Responsibilities:  
+•⁠  ⁠Manage daily social media operations across platforms (Instagram, Facebook, X, LinkedIn, YouTube).  
+•⁠  ⁠Curate, create, and publish engaging content aligned with trending news.  
+•⁠  ⁠Collaborate with the editorial and video production teams to promote stories and special features.  
+•⁠  ⁠Monitor analytics, track audience engagement, and suggest improvement…</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7:03 pm, 26/10/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Company name is Switchgear and control technic Private limited 
+Open position are
+Welding operator
+HSE executive 
+Account executive (fresher)
+Sales manager (wire harness/electrical background)
+Tendering executive(freshers)(vizag location)
+Contact person name: Harini no: 9886051438
+Email id : harini.a@switchgear.in 
+Location: BommaSandra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10:11 pm, 26/10/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>JOB ALERT: FOR PEOPLE WHO TALK MORE THAN THEY LISTEN
+Role: US Customer Support Associate (Voice – E-commerce)
+Location: Electronic City Phase 2, Bengaluru
+Shift: US Rotational – yes, you’ll see sunrise only on Instagram
+SALARY SLABS (Pick your pain):
+0–6 Months: ₹3.10 LPA — Welcome gift: Dark circles
+7–12 Months: ₹3.75 LPA — You now say “sure thing” instead of “okay”
+13–23 Months: ₹4.10–4.22 LPA — You’ve evolved into a professional call warrior
+REQUIREMENTS:
+English so fluent even Siri gets confused
+Freshers welcome (experience arguing with Zomato support also counts)
+Education: PUC &amp; above — we believe in vibes more than marksheets
+CABS:
+2-Way cab included
+But ₹1,000/month deduction — think of it as rent for not walking
+WORK DETAILS:
+5 Days Working | 2…</t>
+        </is>
       </c>
     </row>
   </sheetData>
